--- a/Diagrams/Final Project FPA.xlsx
+++ b/Diagrams/Final Project FPA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecsupomona-my.sharepoint.com/personal/nathanlee_cpp_edu/Documents/CS 4800 Software Engineering/HW and Assignment/Final-Project/Diagrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{A1E4CF92-4C83-4400-9BB3-536373B7EE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B7DB819-8888-4AE8-8516-3BD61F06FE8F}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="8_{A1E4CF92-4C83-4400-9BB3-536373B7EE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DA1ED08-DCE4-4143-9769-8CAFACFE67F6}"/>
   <bookViews>
-    <workbookView xWindow="-14295" yWindow="4515" windowWidth="28800" windowHeight="15435" xr2:uid="{B3F308B4-7053-4C3B-BA88-EE4B1E4619A5}"/>
+    <workbookView xWindow="225" yWindow="3915" windowWidth="28800" windowHeight="15435" xr2:uid="{B3F308B4-7053-4C3B-BA88-EE4B1E4619A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
   <si>
     <t>Complexity</t>
   </si>
   <si>
-    <t>Project: BCRM</t>
-  </si>
-  <si>
     <t>Elementary Process/Group of Data</t>
   </si>
   <si>
@@ -89,13 +86,82 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>Log In</t>
+  </si>
+  <si>
+    <t>Sign up</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>Sign me up</t>
+  </si>
+  <si>
+    <t>Project: BCRM Login</t>
+  </si>
+  <si>
+    <t>Project: BCRM Signup Page</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Project: Welcome Page</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t>Project: Product Order Page</t>
+  </si>
+  <si>
+    <t>Food Search</t>
+  </si>
+  <si>
+    <t>Clothes Search</t>
+  </si>
+  <si>
+    <t>Add Item Button</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Project: Activities Order Page</t>
+  </si>
+  <si>
+    <t>Add Activity</t>
+  </si>
+  <si>
+    <t>Project: Product Checkout Page</t>
+  </si>
+  <si>
+    <t>Buy Now</t>
+  </si>
+  <si>
+    <t>EO</t>
+  </si>
+  <si>
+    <t>Remove Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +169,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,13 +229,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,203 +575,1173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1143411C-4F3B-4CE5-AD34-55CAD95A8333}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
     <col min="2" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+    <row r="1" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6">
         <v>14</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
+      <c r="B27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="6">
+        <v>7</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="6">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="6">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="6">
+        <v>7</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
+      <c r="B40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="6">
+        <v>4</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="6">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="6">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
+      <c r="B52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="6">
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="6">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="6">
+        <v>5</v>
+      </c>
+      <c r="D56" s="6">
+        <v>5</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Diagrams/Final Project FPA.xlsx
+++ b/Diagrams/Final Project FPA.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="269" documentId="8_{A1E4CF92-4C83-4400-9BB3-536373B7EE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DA1ED08-DCE4-4143-9769-8CAFACFE67F6}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3915" windowWidth="28800" windowHeight="15435" xr2:uid="{B3F308B4-7053-4C3B-BA88-EE4B1E4619A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B3F308B4-7053-4C3B-BA88-EE4B1E4619A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,7 +578,7 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Diagrams/Final Project FPA.xlsx
+++ b/Diagrams/Final Project FPA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecsupomona-my.sharepoint.com/personal/nathanlee_cpp_edu/Documents/CS 4800 Software Engineering/HW and Assignment/Final-Project/Diagrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="8_{A1E4CF92-4C83-4400-9BB3-536373B7EE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DA1ED08-DCE4-4143-9769-8CAFACFE67F6}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="8_{A1E4CF92-4C83-4400-9BB3-536373B7EE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B64F97-E2B3-4B6E-8D02-5474061643E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B3F308B4-7053-4C3B-BA88-EE4B1E4619A5}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B3F308B4-7053-4C3B-BA88-EE4B1E4619A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
   <si>
     <t>Complexity</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Remove Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Unadjusted Function Points </t>
   </si>
 </sst>
 </file>
@@ -577,14 +580,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1143411C-4F3B-4CE5-AD34-55CAD95A8333}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="9" width="14" customWidth="1"/>
+    <col min="2" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -631,7 +636,9 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -655,7 +662,10 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <f>SUM(F4:F57)</f>
+        <v>148</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
